--- a/Code/Results/Cases/Case_4_181/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_181/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.65645284922386</v>
+        <v>17.43918213709012</v>
       </c>
       <c r="C2">
-        <v>11.15158217640096</v>
+        <v>8.299527167885106</v>
       </c>
       <c r="D2">
-        <v>9.03256831636928</v>
+        <v>13.516024046038</v>
       </c>
       <c r="E2">
-        <v>8.130323026813485</v>
+        <v>13.9219282601955</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>26.28056576302133</v>
+        <v>35.13222257082307</v>
       </c>
       <c r="H2">
-        <v>9.53387054621991</v>
+        <v>15.88121794057369</v>
       </c>
       <c r="I2">
-        <v>14.51528578562547</v>
+        <v>24.34324190708805</v>
       </c>
       <c r="J2">
-        <v>4.942191210188557</v>
+        <v>8.430017636232815</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.267415048513755</v>
+        <v>12.33806177167017</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.30052255385551</v>
+        <v>17.93985269201614</v>
       </c>
       <c r="O2">
-        <v>16.14915421037628</v>
+        <v>25.02924558630034</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.29515291910517</v>
+        <v>17.0062613004529</v>
       </c>
       <c r="C3">
-        <v>10.61145071109335</v>
+        <v>8.059732190455096</v>
       </c>
       <c r="D3">
-        <v>8.845944707209764</v>
+        <v>13.52097337116417</v>
       </c>
       <c r="E3">
-        <v>8.149081164802755</v>
+        <v>13.95636325109047</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>25.60083516285282</v>
+        <v>35.15611884589168</v>
       </c>
       <c r="H3">
-        <v>9.53166022327062</v>
+        <v>15.92548084319513</v>
       </c>
       <c r="I3">
-        <v>14.63789219296648</v>
+        <v>24.44330165851723</v>
       </c>
       <c r="J3">
-        <v>4.966265042902684</v>
+        <v>8.439498305988668</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.043264379803478</v>
+        <v>12.32261436424844</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.41352366538431</v>
+        <v>17.9832527258697</v>
       </c>
       <c r="O3">
-        <v>15.9969351335454</v>
+        <v>25.09050384396986</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.43650311050438</v>
+        <v>16.73678669722084</v>
       </c>
       <c r="C4">
-        <v>10.26489069297315</v>
+        <v>7.907693877438902</v>
       </c>
       <c r="D4">
-        <v>8.734787558821514</v>
+        <v>13.52647241683673</v>
       </c>
       <c r="E4">
-        <v>8.164617304336184</v>
+        <v>13.97931693002928</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>25.20303169753762</v>
+        <v>35.18140575154056</v>
       </c>
       <c r="H4">
-        <v>9.536861399378536</v>
+        <v>15.95530723337479</v>
       </c>
       <c r="I4">
-        <v>14.72541039422163</v>
+        <v>24.50941584172255</v>
       </c>
       <c r="J4">
-        <v>4.98156863739402</v>
+        <v>8.445632347984388</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.905715473541713</v>
+        <v>12.3147992175039</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.48642074281151</v>
+        <v>18.01165699815161</v>
       </c>
       <c r="O4">
-        <v>15.91687723445873</v>
+        <v>25.13354347283185</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.0753440261361</v>
+        <v>16.62620903013301</v>
       </c>
       <c r="C5">
-        <v>10.12001541789347</v>
+        <v>7.84459105393269</v>
       </c>
       <c r="D5">
-        <v>8.690396333076635</v>
+        <v>13.52933270341052</v>
       </c>
       <c r="E5">
-        <v>8.171934500110071</v>
+        <v>13.98912632399854</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>25.04596941232495</v>
+        <v>35.19437445016268</v>
       </c>
       <c r="H5">
-        <v>9.540576948589607</v>
+        <v>15.96812739762032</v>
       </c>
       <c r="I5">
-        <v>14.76401842058781</v>
+        <v>24.53753297611201</v>
       </c>
       <c r="J5">
-        <v>4.987937785429136</v>
+        <v>8.448210918640973</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.849757704277255</v>
+        <v>12.3120370256487</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.51699906058017</v>
+        <v>18.02367445604103</v>
       </c>
       <c r="O5">
-        <v>15.88754945382819</v>
+        <v>25.1524444301878</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.01469695103228</v>
+        <v>16.60780621131816</v>
       </c>
       <c r="C6">
-        <v>10.09574194723479</v>
+        <v>7.834045572918101</v>
       </c>
       <c r="D6">
-        <v>8.683081174149118</v>
+        <v>13.52984507848806</v>
       </c>
       <c r="E6">
-        <v>8.173208363693909</v>
+        <v>13.99078269208896</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>25.02019749969599</v>
+        <v>35.19668861644297</v>
       </c>
       <c r="H6">
-        <v>9.541288750102046</v>
+        <v>15.97029636889825</v>
       </c>
       <c r="I6">
-        <v>14.7706032484711</v>
+        <v>24.54227274654912</v>
       </c>
       <c r="J6">
-        <v>4.989003442256309</v>
+        <v>8.448643860229552</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.840473901631468</v>
+        <v>12.31160396106257</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.52212893203181</v>
+        <v>18.0256966947998</v>
       </c>
       <c r="O6">
-        <v>15.88287635605432</v>
+        <v>25.15566509659777</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.43167783502506</v>
+        <v>16.73529829264894</v>
       </c>
       <c r="C7">
-        <v>10.26295148111938</v>
+        <v>7.906847405194366</v>
       </c>
       <c r="D7">
-        <v>8.734185157724571</v>
+        <v>13.52650848297711</v>
       </c>
       <c r="E7">
-        <v>8.164712025991253</v>
+        <v>13.97944737786862</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>25.20089291316856</v>
+        <v>35.1815698731142</v>
       </c>
       <c r="H7">
-        <v>9.536905116701414</v>
+        <v>15.95547743587388</v>
       </c>
       <c r="I7">
-        <v>14.72591932908809</v>
+        <v>24.50979028277431</v>
       </c>
       <c r="J7">
-        <v>4.981653994244464</v>
+        <v>8.445666803732777</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.90496032422185</v>
+        <v>12.3147602513459</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.48682961554396</v>
+        <v>18.01181727710581</v>
       </c>
       <c r="O7">
-        <v>15.91646846700071</v>
+        <v>25.13379286692827</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.18703940816007</v>
+        <v>17.29076149045172</v>
       </c>
       <c r="C8">
-        <v>10.96849600765305</v>
+        <v>8.217878259817226</v>
       </c>
       <c r="D8">
-        <v>8.96753510593104</v>
+        <v>13.51722049252617</v>
       </c>
       <c r="E8">
-        <v>8.135942016008366</v>
+        <v>13.93342588561553</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>26.04221858121851</v>
+        <v>35.13825645382479</v>
       </c>
       <c r="H8">
-        <v>9.531715401491361</v>
+        <v>15.89592980618027</v>
       </c>
       <c r="I8">
-        <v>14.55493852258357</v>
+        <v>24.37677116198918</v>
       </c>
       <c r="J8">
-        <v>4.950384415119609</v>
+        <v>8.433221769862035</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.190154668473546</v>
+        <v>12.33239065933975</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.3387487684476</v>
+        <v>17.95445294938264</v>
       </c>
       <c r="O8">
-        <v>16.09384470318597</v>
+        <v>25.04923956795761</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.37867277245652</v>
+        <v>18.34456212777544</v>
       </c>
       <c r="C9">
-        <v>12.23017569474021</v>
+        <v>8.787244054413776</v>
       </c>
       <c r="D9">
-        <v>9.450391341434754</v>
+        <v>13.51848521785585</v>
       </c>
       <c r="E9">
-        <v>8.112516151375132</v>
+        <v>13.85752827226879</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>27.84089759915597</v>
+        <v>35.13768966434704</v>
       </c>
       <c r="H9">
-        <v>9.57593059522865</v>
+        <v>15.80019091138756</v>
       </c>
       <c r="I9">
-        <v>14.32301040616357</v>
+        <v>24.15307753462168</v>
       </c>
       <c r="J9">
-        <v>4.893136982705402</v>
+        <v>8.411289332309501</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.746995946905724</v>
+        <v>12.38008485658335</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.07681965825999</v>
+        <v>17.8558626521284</v>
       </c>
       <c r="O9">
-        <v>16.55093580140379</v>
+        <v>24.92660060891965</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.48064820624496</v>
+        <v>19.08919173436037</v>
       </c>
       <c r="C10">
-        <v>13.07923764357182</v>
+        <v>9.177899749102011</v>
       </c>
       <c r="D10">
-        <v>9.817936937631847</v>
+        <v>13.53122066685014</v>
       </c>
       <c r="E10">
-        <v>8.116955152154977</v>
+        <v>13.81049440712235</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>29.24433634025803</v>
+        <v>35.18880115032898</v>
       </c>
       <c r="H10">
-        <v>9.644757546703071</v>
+        <v>15.74269640669241</v>
       </c>
       <c r="I10">
-        <v>14.22462788122027</v>
+        <v>24.01144422569995</v>
       </c>
       <c r="J10">
-        <v>4.853456733915952</v>
+        <v>8.39666830518475</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.150871943135636</v>
+        <v>12.4229433343857</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.90262490161147</v>
+        <v>17.79185385198298</v>
       </c>
       <c r="O10">
-        <v>16.95673247047273</v>
+        <v>24.86295371706353</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.38509314494621</v>
+        <v>19.42001515733451</v>
       </c>
       <c r="C11">
-        <v>13.44810077717699</v>
+        <v>9.349090863513377</v>
       </c>
       <c r="D11">
-        <v>9.987393919754254</v>
+        <v>13.5395583494702</v>
       </c>
       <c r="E11">
-        <v>8.12401107455457</v>
+        <v>13.79098830754273</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>29.89876763344845</v>
+        <v>35.2232230194069</v>
       </c>
       <c r="H11">
-        <v>9.684627070487828</v>
+        <v>15.71933399540035</v>
       </c>
       <c r="I11">
-        <v>14.19755672519771</v>
+        <v>23.95195779908145</v>
       </c>
       <c r="J11">
-        <v>4.835898429353884</v>
+        <v>8.390337891590818</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.332783153970155</v>
+        <v>12.44409516660818</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.82757126275463</v>
+        <v>17.76455401647082</v>
       </c>
       <c r="O11">
-        <v>17.15709261344963</v>
+        <v>24.83976808720812</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.72021933706172</v>
+        <v>19.54403940076845</v>
       </c>
       <c r="C12">
-        <v>13.58525435141876</v>
+        <v>9.412941180453583</v>
       </c>
       <c r="D12">
-        <v>10.05184676680912</v>
+        <v>13.54307935145876</v>
       </c>
       <c r="E12">
-        <v>8.127435086324082</v>
+        <v>13.78387326383896</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>30.14874416346717</v>
+        <v>35.23785919568579</v>
       </c>
       <c r="H12">
-        <v>9.701008904460535</v>
+        <v>15.71088906918066</v>
       </c>
       <c r="I12">
-        <v>14.19002407198918</v>
+        <v>23.93014397480624</v>
       </c>
       <c r="J12">
-        <v>4.829318414436614</v>
+        <v>8.387986623906233</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.401358003803706</v>
+        <v>12.45233880710873</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.79977490728252</v>
+        <v>17.75447697920378</v>
       </c>
       <c r="O12">
-        <v>17.23526584494098</v>
+        <v>24.83181917043007</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.64837037132249</v>
+        <v>19.51738592552551</v>
       </c>
       <c r="C13">
-        <v>13.55582860028903</v>
+        <v>9.399233850283919</v>
       </c>
       <c r="D13">
-        <v>10.03795372498422</v>
+        <v>13.54230490208552</v>
       </c>
       <c r="E13">
-        <v>8.126663768612206</v>
+        <v>13.7853935453906</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>30.09481339316694</v>
+        <v>35.23463591304834</v>
       </c>
       <c r="H13">
-        <v>9.697422834357141</v>
+        <v>15.7126899539347</v>
       </c>
       <c r="I13">
-        <v>14.19152260840444</v>
+        <v>23.93481026322359</v>
       </c>
       <c r="J13">
-        <v>4.830732503222531</v>
+        <v>8.388490972268361</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.386603745876023</v>
+        <v>12.45055305682822</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.80573317564639</v>
+        <v>17.75663565922988</v>
       </c>
       <c r="O13">
-        <v>17.21832699607298</v>
+        <v>24.83349413180888</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.41281139751513</v>
+        <v>19.43024440352283</v>
       </c>
       <c r="C14">
-        <v>13.45943525201922</v>
+        <v>9.354363634373728</v>
       </c>
       <c r="D14">
-        <v>9.992691045392016</v>
+        <v>13.53984074858127</v>
       </c>
       <c r="E14">
-        <v>8.124277536674231</v>
+        <v>13.79039750903796</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>29.91929087478796</v>
+        <v>35.22439508848834</v>
       </c>
       <c r="H14">
-        <v>9.685948776682846</v>
+        <v>15.71863116913221</v>
       </c>
       <c r="I14">
-        <v>14.19688150220504</v>
+        <v>23.95014887619543</v>
       </c>
       <c r="J14">
-        <v>4.835355717047921</v>
+        <v>8.390143532183531</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.338431345669797</v>
+        <v>12.44476871255766</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.82527177967155</v>
+        <v>17.76371974886355</v>
       </c>
       <c r="O14">
-        <v>17.16347767234501</v>
+        <v>24.83909746296804</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.26756751807954</v>
+        <v>19.37670152547264</v>
       </c>
       <c r="C15">
-        <v>13.4000618069</v>
+        <v>9.326751151711932</v>
       </c>
       <c r="D15">
-        <v>9.965002046625099</v>
+        <v>13.53837867965858</v>
       </c>
       <c r="E15">
-        <v>8.122914675574195</v>
+        <v>13.79349792965325</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>29.81205526778831</v>
+        <v>35.21833064986325</v>
       </c>
       <c r="H15">
-        <v>9.679089378419379</v>
+        <v>15.7223226871994</v>
       </c>
       <c r="I15">
-        <v>14.20052331312662</v>
+        <v>23.95963704087206</v>
       </c>
       <c r="J15">
-        <v>4.8381964892494</v>
+        <v>8.391161747324716</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.308882479160557</v>
+        <v>12.44125596928692</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.83732181996808</v>
+        <v>17.76809290638423</v>
       </c>
       <c r="O15">
-        <v>17.1301815028043</v>
+        <v>24.84263792502926</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.42050551031292</v>
+        <v>19.06740249838616</v>
       </c>
       <c r="C16">
-        <v>13.05477925826968</v>
+        <v>9.166577422304997</v>
       </c>
       <c r="D16">
-        <v>9.806904341020383</v>
+        <v>13.53072679815443</v>
       </c>
       <c r="E16">
-        <v>8.116597752720422</v>
+        <v>13.81180718268266</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>29.20187709114289</v>
+        <v>35.18677600559016</v>
       </c>
       <c r="H16">
-        <v>9.642328794676972</v>
+        <v>15.74427941567403</v>
       </c>
       <c r="I16">
-        <v>14.2267678022864</v>
+        <v>24.01543140761195</v>
       </c>
       <c r="J16">
-        <v>4.854613960656862</v>
+        <v>8.397088449813729</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.138942689420086</v>
+        <v>12.42159397311958</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.90761598772117</v>
+        <v>17.79367449153777</v>
       </c>
       <c r="O16">
-        <v>16.94395871452091</v>
+        <v>24.86458515600805</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.88765735678687</v>
+        <v>18.87554714519948</v>
       </c>
       <c r="C17">
-        <v>12.83848544852411</v>
+        <v>9.066617362460361</v>
       </c>
       <c r="D17">
-        <v>9.710464368194561</v>
+        <v>13.52668281032999</v>
       </c>
       <c r="E17">
-        <v>8.114032229550057</v>
+        <v>13.82352316510202</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>28.83154400159263</v>
+        <v>35.17027647139782</v>
       </c>
       <c r="H17">
-        <v>9.622007889570558</v>
+        <v>15.75846459045769</v>
       </c>
       <c r="I17">
-        <v>14.24752070505736</v>
+        <v>24.05092663784375</v>
       </c>
       <c r="J17">
-        <v>4.864810359629568</v>
+        <v>8.400806300382559</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.034187904390535</v>
+        <v>12.40995306667013</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.95182723154383</v>
+        <v>17.80983317406545</v>
       </c>
       <c r="O17">
-        <v>16.83378038728962</v>
+        <v>24.87952754035705</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.57630123502649</v>
+        <v>18.7644584562982</v>
       </c>
       <c r="C18">
-        <v>12.71244413481615</v>
+        <v>9.008511297391941</v>
       </c>
       <c r="D18">
-        <v>9.655209547484139</v>
+        <v>13.52459643944246</v>
       </c>
       <c r="E18">
-        <v>8.113028995276368</v>
+        <v>13.83043978549912</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>28.62005197827514</v>
+        <v>35.16183826795537</v>
       </c>
       <c r="H18">
-        <v>9.611122405387231</v>
+        <v>15.7668863140679</v>
       </c>
       <c r="I18">
-        <v>14.26111086394557</v>
+        <v>24.07180774553239</v>
       </c>
       <c r="J18">
-        <v>4.87072152607234</v>
+        <v>8.402974913641833</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.973767591802689</v>
+        <v>12.40341359023915</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.97764911592649</v>
+        <v>17.81929838395805</v>
       </c>
       <c r="O18">
-        <v>16.77189056464747</v>
+        <v>24.88866480789916</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.47004171222214</v>
+        <v>18.72672250479602</v>
       </c>
       <c r="C19">
-        <v>12.66948893277914</v>
+        <v>8.988733765972825</v>
       </c>
       <c r="D19">
-        <v>9.636539446045035</v>
+        <v>13.52393124725011</v>
       </c>
       <c r="E19">
-        <v>8.112769606958922</v>
+        <v>13.83281219623237</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>28.54870901199402</v>
+        <v>35.1591620213242</v>
       </c>
       <c r="H19">
-        <v>9.607572972007176</v>
+        <v>15.76978288573125</v>
       </c>
       <c r="I19">
-        <v>14.26599099229598</v>
+        <v>24.07895757954379</v>
       </c>
       <c r="J19">
-        <v>4.87273098233423</v>
+        <v>8.403714362602637</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.953283063778938</v>
+        <v>12.40122636250706</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.98645876870179</v>
+        <v>17.82253255804085</v>
       </c>
       <c r="O19">
-        <v>16.75118909153417</v>
+        <v>24.89185170304251</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.94488406128383</v>
+        <v>18.89604776702906</v>
       </c>
       <c r="C20">
-        <v>12.86167972464667</v>
+        <v>9.077321880173566</v>
       </c>
       <c r="D20">
-        <v>9.720708638699922</v>
+        <v>13.52708851437417</v>
       </c>
       <c r="E20">
-        <v>8.114256242963034</v>
+        <v>13.82225756896885</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>28.87081100735948</v>
+        <v>35.17192403813013</v>
       </c>
       <c r="H20">
-        <v>9.624087634017178</v>
+        <v>15.75692735390847</v>
       </c>
       <c r="I20">
-        <v>14.24513911921485</v>
+        <v>24.04709995333011</v>
       </c>
       <c r="J20">
-        <v>4.86372013972447</v>
+        <v>8.400407404324566</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.045357013735874</v>
+        <v>12.41117613811828</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.94708006574135</v>
+        <v>17.80809534453762</v>
       </c>
       <c r="O20">
-        <v>16.8453554249612</v>
+        <v>24.87788070737928</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.48220012241581</v>
+        <v>19.45587480201458</v>
       </c>
       <c r="C21">
-        <v>13.4878170680193</v>
+        <v>9.367569879856658</v>
       </c>
       <c r="D21">
-        <v>10.00597842119815</v>
+        <v>13.54055467792331</v>
       </c>
       <c r="E21">
-        <v>8.124957796177206</v>
+        <v>13.78892035752841</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>29.97078859835122</v>
+        <v>35.22735965613148</v>
       </c>
       <c r="H21">
-        <v>9.689283715471515</v>
+        <v>15.71687517938722</v>
       </c>
       <c r="I21">
-        <v>14.19523226077671</v>
+        <v>23.94562420706316</v>
       </c>
       <c r="J21">
-        <v>4.833995911566109</v>
+        <v>8.389656890562184</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.352589555912425</v>
+        <v>12.44646140064235</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.81951566877363</v>
+        <v>17.76163190635326</v>
       </c>
       <c r="O21">
-        <v>17.17952554340997</v>
+        <v>24.83742906509664</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.44401809796241</v>
+        <v>19.81441393856004</v>
       </c>
       <c r="C22">
-        <v>13.8822989979915</v>
+        <v>9.551559637270184</v>
       </c>
       <c r="D22">
-        <v>10.19405248746771</v>
+        <v>13.55147434467286</v>
       </c>
       <c r="E22">
-        <v>8.136348741072599</v>
+        <v>13.76871490184483</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>30.70220949320879</v>
+        <v>35.27292028287319</v>
       </c>
       <c r="H22">
-        <v>9.739401964320717</v>
+        <v>15.69304157883457</v>
       </c>
       <c r="I22">
-        <v>14.1785458260176</v>
+        <v>23.88345705688264</v>
       </c>
       <c r="J22">
-        <v>4.814970285000133</v>
+        <v>8.382898387189055</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.551552318456356</v>
+        <v>12.47088364843852</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.73979916275605</v>
+        <v>17.73278533465422</v>
       </c>
       <c r="O22">
-        <v>17.41135089936211</v>
+        <v>24.81583567359583</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.93457843561282</v>
+        <v>19.62376157004511</v>
       </c>
       <c r="C23">
-        <v>13.67311157885904</v>
+        <v>9.453894409558803</v>
       </c>
       <c r="D23">
-        <v>10.09353715870521</v>
+        <v>13.54545322818591</v>
       </c>
       <c r="E23">
-        <v>8.129857595350307</v>
+        <v>13.77935423928216</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>30.31073360822578</v>
+        <v>35.24775216581219</v>
       </c>
       <c r="H23">
-        <v>9.711948499742972</v>
+        <v>15.70554752838367</v>
       </c>
       <c r="I23">
-        <v>14.18593488526765</v>
+        <v>23.91625630504734</v>
       </c>
       <c r="J23">
-        <v>4.825088579823814</v>
+        <v>8.38648111077997</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.445544678709075</v>
+        <v>12.45772589554888</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.78200291853793</v>
+        <v>17.74804241596837</v>
       </c>
       <c r="O23">
-        <v>17.28638267287422</v>
+        <v>24.82691679152941</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.91902749323134</v>
+        <v>18.88678188311691</v>
       </c>
       <c r="C24">
-        <v>12.85119885766766</v>
+        <v>9.072484351065679</v>
       </c>
       <c r="D24">
-        <v>9.716076609603439</v>
+        <v>13.52690435229995</v>
       </c>
       <c r="E24">
-        <v>8.114153499302953</v>
+        <v>13.82282918133563</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>28.85305396806955</v>
+        <v>35.17117590964721</v>
       </c>
       <c r="H24">
-        <v>9.623144902261243</v>
+        <v>15.75762150850971</v>
       </c>
       <c r="I24">
-        <v>14.24621067990059</v>
+        <v>24.04882851968942</v>
       </c>
       <c r="J24">
-        <v>4.864212875001829</v>
+        <v>8.400587648120892</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.040308064125476</v>
+        <v>12.41062271051809</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.94922500192314</v>
+        <v>17.80888047095193</v>
       </c>
       <c r="O24">
-        <v>16.84011782682695</v>
+        <v>24.87862353776879</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.55822402575244</v>
+        <v>18.06413741851732</v>
       </c>
       <c r="C25">
-        <v>11.90233267192413</v>
+        <v>8.637879596343923</v>
       </c>
       <c r="D25">
-        <v>9.317333853245556</v>
+        <v>13.51606382586664</v>
       </c>
       <c r="E25">
-        <v>8.115163754583298</v>
+        <v>13.8765263476789</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>27.33927290808935</v>
+        <v>35.12879351601034</v>
       </c>
       <c r="H25">
-        <v>9.557814923166863</v>
+        <v>15.82383659807592</v>
       </c>
       <c r="I25">
-        <v>14.37378036999312</v>
+        <v>24.2096083358976</v>
       </c>
       <c r="J25">
-        <v>4.908198413534658</v>
+        <v>8.416959463711175</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.597022901404033</v>
+        <v>12.36579544499105</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.14454586752874</v>
+        <v>17.88105086966905</v>
       </c>
       <c r="O25">
-        <v>16.41520448837098</v>
+        <v>24.95514071697751</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_181/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_181/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.43918213709012</v>
+        <v>20.65645284922387</v>
       </c>
       <c r="C2">
-        <v>8.299527167885106</v>
+        <v>11.15158217640111</v>
       </c>
       <c r="D2">
-        <v>13.516024046038</v>
+        <v>9.0325683163693</v>
       </c>
       <c r="E2">
-        <v>13.9219282601955</v>
+        <v>8.130323026813489</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.13222257082307</v>
+        <v>26.28056576302123</v>
       </c>
       <c r="H2">
-        <v>15.88121794057369</v>
+        <v>9.533870546219921</v>
       </c>
       <c r="I2">
-        <v>24.34324190708805</v>
+        <v>14.51528578562543</v>
       </c>
       <c r="J2">
-        <v>8.430017636232815</v>
+        <v>4.942191210188558</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.33806177167017</v>
+        <v>8.267415048513737</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.93985269201614</v>
+        <v>12.30052255385547</v>
       </c>
       <c r="O2">
-        <v>25.02924558630034</v>
+        <v>16.14915421037623</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.0062613004529</v>
+        <v>19.29515291910519</v>
       </c>
       <c r="C3">
-        <v>8.059732190455096</v>
+        <v>10.61145071109335</v>
       </c>
       <c r="D3">
-        <v>13.52097337116417</v>
+        <v>8.845944707209878</v>
       </c>
       <c r="E3">
-        <v>13.95636325109047</v>
+        <v>8.149081164802881</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>35.15611884589168</v>
+        <v>25.60083516285306</v>
       </c>
       <c r="H3">
-        <v>15.92548084319513</v>
+        <v>9.531660223270727</v>
       </c>
       <c r="I3">
-        <v>24.44330165851723</v>
+        <v>14.63789219296669</v>
       </c>
       <c r="J3">
-        <v>8.439498305988668</v>
+        <v>4.966265042902649</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.32261436424844</v>
+        <v>8.043264379803498</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.9832527258697</v>
+        <v>12.4135236653844</v>
       </c>
       <c r="O3">
-        <v>25.09050384396986</v>
+        <v>15.9969351335456</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.73678669722084</v>
+        <v>18.43650311050436</v>
       </c>
       <c r="C4">
-        <v>7.907693877438902</v>
+        <v>10.26489069297332</v>
       </c>
       <c r="D4">
-        <v>13.52647241683673</v>
+        <v>8.734787558821498</v>
       </c>
       <c r="E4">
-        <v>13.97931693002928</v>
+        <v>8.164617304336238</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>35.18140575154056</v>
+        <v>25.20303169753769</v>
       </c>
       <c r="H4">
-        <v>15.95530723337479</v>
+        <v>9.536861399378473</v>
       </c>
       <c r="I4">
-        <v>24.50941584172255</v>
+        <v>14.72541039422171</v>
       </c>
       <c r="J4">
-        <v>8.445632347984388</v>
+        <v>4.981568637394087</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.3147992175039</v>
+        <v>7.905715473541666</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.01165699815161</v>
+        <v>12.48642074281154</v>
       </c>
       <c r="O4">
-        <v>25.13354347283185</v>
+        <v>15.91687723445872</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.62620903013301</v>
+        <v>18.07534402613614</v>
       </c>
       <c r="C5">
-        <v>7.84459105393269</v>
+        <v>10.1200154178935</v>
       </c>
       <c r="D5">
-        <v>13.52933270341052</v>
+        <v>8.69039633307661</v>
       </c>
       <c r="E5">
-        <v>13.98912632399854</v>
+        <v>8.171934500110137</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>35.19437445016268</v>
+        <v>25.04596941232517</v>
       </c>
       <c r="H5">
-        <v>15.96812739762032</v>
+        <v>9.540576948589623</v>
       </c>
       <c r="I5">
-        <v>24.53753297611201</v>
+        <v>14.76401842058793</v>
       </c>
       <c r="J5">
-        <v>8.448210918640973</v>
+        <v>4.987937785429203</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.3120370256487</v>
+        <v>7.849757704277281</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.02367445604103</v>
+        <v>12.51699906058019</v>
       </c>
       <c r="O5">
-        <v>25.1524444301878</v>
+        <v>15.88754945382833</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.60780621131816</v>
+        <v>18.01469695103232</v>
       </c>
       <c r="C6">
-        <v>7.834045572918101</v>
+        <v>10.09574194723494</v>
       </c>
       <c r="D6">
-        <v>13.52984507848806</v>
+        <v>8.683081174149114</v>
       </c>
       <c r="E6">
-        <v>13.99078269208896</v>
+        <v>8.173208363693792</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>35.19668861644297</v>
+        <v>25.0201974996964</v>
       </c>
       <c r="H6">
-        <v>15.97029636889825</v>
+        <v>9.541288750102108</v>
       </c>
       <c r="I6">
-        <v>24.54227274654912</v>
+        <v>14.77060324847141</v>
       </c>
       <c r="J6">
-        <v>8.448643860229552</v>
+        <v>4.989003442256208</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.31160396106257</v>
+        <v>7.840473901631356</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.0256966947998</v>
+        <v>12.52212893203193</v>
       </c>
       <c r="O6">
-        <v>25.15566509659777</v>
+        <v>15.88287635605454</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.73529829264894</v>
+        <v>18.43167783502508</v>
       </c>
       <c r="C7">
-        <v>7.906847405194366</v>
+        <v>10.26295148111944</v>
       </c>
       <c r="D7">
-        <v>13.52650848297711</v>
+        <v>8.734185157724571</v>
       </c>
       <c r="E7">
-        <v>13.97944737786862</v>
+        <v>8.164712025991253</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>35.1815698731142</v>
+        <v>25.20089291316864</v>
       </c>
       <c r="H7">
-        <v>15.95547743587388</v>
+        <v>9.536905116701414</v>
       </c>
       <c r="I7">
-        <v>24.50979028277431</v>
+        <v>14.72591932908813</v>
       </c>
       <c r="J7">
-        <v>8.445666803732777</v>
+        <v>4.981653994244498</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.3147602513459</v>
+        <v>7.90496032422182</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.01181727710581</v>
+        <v>12.48682961554399</v>
       </c>
       <c r="O7">
-        <v>25.13379286692827</v>
+        <v>15.91646846700074</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.29076149045172</v>
+        <v>20.18703940816009</v>
       </c>
       <c r="C8">
-        <v>8.217878259817226</v>
+        <v>10.96849600765302</v>
       </c>
       <c r="D8">
-        <v>13.51722049252617</v>
+        <v>8.96753510593104</v>
       </c>
       <c r="E8">
-        <v>13.93342588561553</v>
+        <v>8.135942016008311</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.13825645382479</v>
+        <v>26.04221858121855</v>
       </c>
       <c r="H8">
-        <v>15.89592980618027</v>
+        <v>9.531715401491372</v>
       </c>
       <c r="I8">
-        <v>24.37677116198918</v>
+        <v>14.55493852258359</v>
       </c>
       <c r="J8">
-        <v>8.433221769862035</v>
+        <v>4.950384415119642</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.33239065933975</v>
+        <v>8.190154668473543</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.95445294938264</v>
+        <v>12.3387487684476</v>
       </c>
       <c r="O8">
-        <v>25.04923956795761</v>
+        <v>16.09384470318598</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.34456212777544</v>
+        <v>23.37867277245658</v>
       </c>
       <c r="C9">
-        <v>8.787244054413776</v>
+        <v>12.23017569474028</v>
       </c>
       <c r="D9">
-        <v>13.51848521785585</v>
+        <v>9.45039134143477</v>
       </c>
       <c r="E9">
-        <v>13.85752827226879</v>
+        <v>8.112516151375287</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>35.13768966434704</v>
+        <v>27.84089759915576</v>
       </c>
       <c r="H9">
-        <v>15.80019091138756</v>
+        <v>9.575930595228559</v>
       </c>
       <c r="I9">
-        <v>24.15307753462168</v>
+        <v>14.3230104061634</v>
       </c>
       <c r="J9">
-        <v>8.411289332309501</v>
+        <v>4.893136982705537</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.38008485658335</v>
+        <v>8.746995946905772</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.8558626521284</v>
+        <v>12.07681965825986</v>
       </c>
       <c r="O9">
-        <v>24.92660060891965</v>
+        <v>16.5509358014036</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.08919173436037</v>
+        <v>25.48064820624493</v>
       </c>
       <c r="C10">
-        <v>9.177899749102011</v>
+        <v>13.07923764357179</v>
       </c>
       <c r="D10">
-        <v>13.53122066685014</v>
+        <v>9.817936937631835</v>
       </c>
       <c r="E10">
-        <v>13.81049440712235</v>
+        <v>8.116955152155034</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>35.18880115032898</v>
+        <v>29.24433634025814</v>
       </c>
       <c r="H10">
-        <v>15.74269640669241</v>
+        <v>9.644757546703083</v>
       </c>
       <c r="I10">
-        <v>24.01144422569995</v>
+        <v>14.2246278812203</v>
       </c>
       <c r="J10">
-        <v>8.39666830518475</v>
+        <v>4.85345673391612</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.4229433343857</v>
+        <v>9.150871943135638</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.79185385198298</v>
+        <v>11.90262490161143</v>
       </c>
       <c r="O10">
-        <v>24.86295371706353</v>
+        <v>16.95673247047276</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.42001515733451</v>
+        <v>26.3850931449462</v>
       </c>
       <c r="C11">
-        <v>9.349090863513377</v>
+        <v>13.44810077717689</v>
       </c>
       <c r="D11">
-        <v>13.5395583494702</v>
+        <v>9.987393919754268</v>
       </c>
       <c r="E11">
-        <v>13.79098830754273</v>
+        <v>8.124011074554527</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>35.2232230194069</v>
+        <v>29.89876763344854</v>
       </c>
       <c r="H11">
-        <v>15.71933399540035</v>
+        <v>9.684627070487881</v>
       </c>
       <c r="I11">
-        <v>23.95195779908145</v>
+        <v>14.19755672519779</v>
       </c>
       <c r="J11">
-        <v>8.390337891590818</v>
+        <v>4.835898429353851</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.44409516660818</v>
+        <v>9.332783153970164</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.76455401647082</v>
+        <v>11.82757126275465</v>
       </c>
       <c r="O11">
-        <v>24.83976808720812</v>
+        <v>17.15709261344972</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.54403940076845</v>
+        <v>26.7202193370617</v>
       </c>
       <c r="C12">
-        <v>9.412941180453583</v>
+        <v>13.58525435141882</v>
       </c>
       <c r="D12">
-        <v>13.54307935145876</v>
+        <v>10.05184676680905</v>
       </c>
       <c r="E12">
-        <v>13.78387326383896</v>
+        <v>8.12743508632402</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>35.23785919568579</v>
+        <v>30.14874416346712</v>
       </c>
       <c r="H12">
-        <v>15.71088906918066</v>
+        <v>9.701008904460581</v>
       </c>
       <c r="I12">
-        <v>23.93014397480624</v>
+        <v>14.19002407198921</v>
       </c>
       <c r="J12">
-        <v>8.387986623906233</v>
+        <v>4.829318414436581</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.45233880710873</v>
+        <v>9.401358003803663</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.75447697920378</v>
+        <v>11.79977490728252</v>
       </c>
       <c r="O12">
-        <v>24.83181917043007</v>
+        <v>17.23526584494102</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.51738592552551</v>
+        <v>26.64837037132248</v>
       </c>
       <c r="C13">
-        <v>9.399233850283919</v>
+        <v>13.55582860028894</v>
       </c>
       <c r="D13">
-        <v>13.54230490208552</v>
+        <v>10.03795372498423</v>
       </c>
       <c r="E13">
-        <v>13.7853935453906</v>
+        <v>8.126663768612168</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>35.23463591304834</v>
+        <v>30.09481339316697</v>
       </c>
       <c r="H13">
-        <v>15.7126899539347</v>
+        <v>9.697422834357136</v>
       </c>
       <c r="I13">
-        <v>23.93481026322359</v>
+        <v>14.19152260840444</v>
       </c>
       <c r="J13">
-        <v>8.388490972268361</v>
+        <v>4.830732503222498</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.45055305682822</v>
+        <v>9.386603745876023</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.75663565922988</v>
+        <v>11.80573317564632</v>
       </c>
       <c r="O13">
-        <v>24.83349413180888</v>
+        <v>17.218326996073</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.43024440352283</v>
+        <v>26.41281139751519</v>
       </c>
       <c r="C14">
-        <v>9.354363634373728</v>
+        <v>13.45943525201931</v>
       </c>
       <c r="D14">
-        <v>13.53984074858127</v>
+        <v>9.992691045392064</v>
       </c>
       <c r="E14">
-        <v>13.79039750903796</v>
+        <v>8.124277536674136</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>35.22439508848834</v>
+        <v>29.91929087478779</v>
       </c>
       <c r="H14">
-        <v>15.71863116913221</v>
+        <v>9.685948776682718</v>
       </c>
       <c r="I14">
-        <v>23.95014887619543</v>
+        <v>14.19688150220486</v>
       </c>
       <c r="J14">
-        <v>8.390143532183531</v>
+        <v>4.835355717047889</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.44476871255766</v>
+        <v>9.338431345669761</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.76371974886355</v>
+        <v>11.82527177967146</v>
       </c>
       <c r="O14">
-        <v>24.83909746296804</v>
+        <v>17.16347767234486</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.37670152547264</v>
+        <v>26.26756751807959</v>
       </c>
       <c r="C15">
-        <v>9.326751151711932</v>
+        <v>13.40006180690011</v>
       </c>
       <c r="D15">
-        <v>13.53837867965858</v>
+        <v>9.965002046625097</v>
       </c>
       <c r="E15">
-        <v>13.79349792965325</v>
+        <v>8.122914675574197</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>35.21833064986325</v>
+        <v>29.81205526778825</v>
       </c>
       <c r="H15">
-        <v>15.7223226871994</v>
+        <v>9.679089378419361</v>
       </c>
       <c r="I15">
-        <v>23.95963704087206</v>
+        <v>14.20052331312657</v>
       </c>
       <c r="J15">
-        <v>8.391161747324716</v>
+        <v>4.838196489249369</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.44125596928692</v>
+        <v>9.308882479160536</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.76809290638423</v>
+        <v>11.83732181996807</v>
       </c>
       <c r="O15">
-        <v>24.84263792502926</v>
+        <v>17.13018150280425</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.06740249838616</v>
+        <v>25.42050551031294</v>
       </c>
       <c r="C16">
-        <v>9.166577422304997</v>
+        <v>13.05477925826974</v>
       </c>
       <c r="D16">
-        <v>13.53072679815443</v>
+        <v>9.806904341020413</v>
       </c>
       <c r="E16">
-        <v>13.81180718268266</v>
+        <v>8.116597752720415</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>35.18677600559016</v>
+        <v>29.20187709114292</v>
       </c>
       <c r="H16">
-        <v>15.74427941567403</v>
+        <v>9.642328794676857</v>
       </c>
       <c r="I16">
-        <v>24.01543140761195</v>
+        <v>14.22676780228637</v>
       </c>
       <c r="J16">
-        <v>8.397088449813729</v>
+        <v>4.854613960656861</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.42159397311958</v>
+        <v>9.138942689420066</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.79367449153777</v>
+        <v>11.90761598772113</v>
       </c>
       <c r="O16">
-        <v>24.86458515600805</v>
+        <v>16.94395871452089</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.87554714519948</v>
+        <v>24.88765735678696</v>
       </c>
       <c r="C17">
-        <v>9.066617362460361</v>
+        <v>12.83848544852409</v>
       </c>
       <c r="D17">
-        <v>13.52668281032999</v>
+        <v>9.710464368194518</v>
       </c>
       <c r="E17">
-        <v>13.82352316510202</v>
+        <v>8.114032229550066</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>35.17027647139782</v>
+        <v>28.83154400159264</v>
       </c>
       <c r="H17">
-        <v>15.75846459045769</v>
+        <v>9.622007889570437</v>
       </c>
       <c r="I17">
-        <v>24.05092663784375</v>
+        <v>14.24752070505725</v>
       </c>
       <c r="J17">
-        <v>8.400806300382559</v>
+        <v>4.864810359629669</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.40995306667013</v>
+        <v>9.034187904390539</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.80983317406545</v>
+        <v>11.95182723154382</v>
       </c>
       <c r="O17">
-        <v>24.87952754035705</v>
+        <v>16.83378038728955</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.7644584562982</v>
+        <v>24.5763012350265</v>
       </c>
       <c r="C18">
-        <v>9.008511297391941</v>
+        <v>12.71244413481615</v>
       </c>
       <c r="D18">
-        <v>13.52459643944246</v>
+        <v>9.655209547484095</v>
       </c>
       <c r="E18">
-        <v>13.83043978549912</v>
+        <v>8.113028995276354</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>35.16183826795537</v>
+        <v>28.62005197827511</v>
       </c>
       <c r="H18">
-        <v>15.7668863140679</v>
+        <v>9.611122405387244</v>
       </c>
       <c r="I18">
-        <v>24.07180774553239</v>
+        <v>14.26111086394556</v>
       </c>
       <c r="J18">
-        <v>8.402974913641833</v>
+        <v>4.870721526072373</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.40341359023915</v>
+        <v>8.973767591802696</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.81929838395805</v>
+        <v>11.97764911592645</v>
       </c>
       <c r="O18">
-        <v>24.88866480789916</v>
+        <v>16.77189056464745</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.72672250479602</v>
+        <v>24.47004171222211</v>
       </c>
       <c r="C19">
-        <v>8.988733765972825</v>
+        <v>12.66948893277927</v>
       </c>
       <c r="D19">
-        <v>13.52393124725011</v>
+        <v>9.63653944604515</v>
       </c>
       <c r="E19">
-        <v>13.83281219623237</v>
+        <v>8.112769606959029</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>35.1591620213242</v>
+        <v>28.5487090119941</v>
       </c>
       <c r="H19">
-        <v>15.76978288573125</v>
+        <v>9.607572972007233</v>
       </c>
       <c r="I19">
-        <v>24.07895757954379</v>
+        <v>14.26599099229614</v>
       </c>
       <c r="J19">
-        <v>8.403714362602637</v>
+        <v>4.87273098233423</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.40122636250706</v>
+        <v>8.95328306377894</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.82253255804085</v>
+        <v>11.98645876870185</v>
       </c>
       <c r="O19">
-        <v>24.89185170304251</v>
+        <v>16.75118909153424</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.89604776702906</v>
+        <v>24.94488406128382</v>
       </c>
       <c r="C20">
-        <v>9.077321880173566</v>
+        <v>12.86167972464674</v>
       </c>
       <c r="D20">
-        <v>13.52708851437417</v>
+        <v>9.720708638699907</v>
       </c>
       <c r="E20">
-        <v>13.82225756896885</v>
+        <v>8.11425624296303</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>35.17192403813013</v>
+        <v>28.87081100735939</v>
       </c>
       <c r="H20">
-        <v>15.75692735390847</v>
+        <v>9.624087634017082</v>
       </c>
       <c r="I20">
-        <v>24.04709995333011</v>
+        <v>14.24513911921481</v>
       </c>
       <c r="J20">
-        <v>8.400407404324566</v>
+        <v>4.863720139724403</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.41117613811828</v>
+        <v>9.045357013735815</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.80809534453762</v>
+        <v>11.94708006574126</v>
       </c>
       <c r="O20">
-        <v>24.87788070737928</v>
+        <v>16.84535542496111</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.45587480201458</v>
+        <v>26.4822001224158</v>
       </c>
       <c r="C21">
-        <v>9.367569879856658</v>
+        <v>13.48781706801938</v>
       </c>
       <c r="D21">
-        <v>13.54055467792331</v>
+        <v>10.00597842119818</v>
       </c>
       <c r="E21">
-        <v>13.78892035752841</v>
+        <v>8.124957796177259</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>35.22735965613148</v>
+        <v>29.97078859835137</v>
       </c>
       <c r="H21">
-        <v>15.71687517938722</v>
+        <v>9.689283715471527</v>
       </c>
       <c r="I21">
-        <v>23.94562420706316</v>
+        <v>14.19523226077682</v>
       </c>
       <c r="J21">
-        <v>8.389656890562184</v>
+        <v>4.833995911566142</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.44646140064235</v>
+        <v>9.352589555912445</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.76163190635326</v>
+        <v>11.81951566877366</v>
       </c>
       <c r="O21">
-        <v>24.83742906509664</v>
+        <v>17.17952554341004</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.81441393856004</v>
+        <v>27.44401809796247</v>
       </c>
       <c r="C22">
-        <v>9.551559637270184</v>
+        <v>13.88229899799145</v>
       </c>
       <c r="D22">
-        <v>13.55147434467286</v>
+        <v>10.1940524874678</v>
       </c>
       <c r="E22">
-        <v>13.76871490184483</v>
+        <v>8.136348741072705</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>35.27292028287319</v>
+        <v>30.70220949320881</v>
       </c>
       <c r="H22">
-        <v>15.69304157883457</v>
+        <v>9.739401964320736</v>
       </c>
       <c r="I22">
-        <v>23.88345705688264</v>
+        <v>14.17854582601761</v>
       </c>
       <c r="J22">
-        <v>8.382898387189055</v>
+        <v>4.814970285000101</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.47088364843852</v>
+        <v>9.5515523184564</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.73278533465422</v>
+        <v>11.73979916275604</v>
       </c>
       <c r="O22">
-        <v>24.81583567359583</v>
+        <v>17.41135089936213</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.62376157004511</v>
+        <v>26.93457843561283</v>
       </c>
       <c r="C23">
-        <v>9.453894409558803</v>
+        <v>13.67311157885898</v>
       </c>
       <c r="D23">
-        <v>13.54545322818591</v>
+        <v>10.09353715870522</v>
       </c>
       <c r="E23">
-        <v>13.77935423928216</v>
+        <v>8.129857595350307</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>35.24775216581219</v>
+        <v>30.31073360822582</v>
       </c>
       <c r="H23">
-        <v>15.70554752838367</v>
+        <v>9.711948499742897</v>
       </c>
       <c r="I23">
-        <v>23.91625630504734</v>
+        <v>14.18593488526761</v>
       </c>
       <c r="J23">
-        <v>8.38648111077997</v>
+        <v>4.825088579823814</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.45772589554888</v>
+        <v>9.445544678709075</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.74804241596837</v>
+        <v>11.78200291853789</v>
       </c>
       <c r="O23">
-        <v>24.82691679152941</v>
+        <v>17.28638267287421</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.88678188311691</v>
+        <v>24.91902749323135</v>
       </c>
       <c r="C24">
-        <v>9.072484351065679</v>
+        <v>12.85119885766759</v>
       </c>
       <c r="D24">
-        <v>13.52690435229995</v>
+        <v>9.716076609603325</v>
       </c>
       <c r="E24">
-        <v>13.82282918133563</v>
+        <v>8.114153499302851</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>35.17117590964721</v>
+        <v>28.85305396806956</v>
       </c>
       <c r="H24">
-        <v>15.75762150850971</v>
+        <v>9.623144902261256</v>
       </c>
       <c r="I24">
-        <v>24.04882851968942</v>
+        <v>14.24621067990054</v>
       </c>
       <c r="J24">
-        <v>8.400587648120892</v>
+        <v>4.864212875001829</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.41062271051809</v>
+        <v>9.040308064125426</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.80888047095193</v>
+        <v>11.94922500192311</v>
       </c>
       <c r="O24">
-        <v>24.87862353776879</v>
+        <v>16.84011782682695</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.06413741851732</v>
+        <v>22.55822402575244</v>
       </c>
       <c r="C25">
-        <v>8.637879596343923</v>
+        <v>11.90233267192409</v>
       </c>
       <c r="D25">
-        <v>13.51606382586664</v>
+        <v>9.317333853245497</v>
       </c>
       <c r="E25">
-        <v>13.8765263476789</v>
+        <v>8.115163754583312</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>35.12879351601034</v>
+        <v>27.33927290808924</v>
       </c>
       <c r="H25">
-        <v>15.82383659807592</v>
+        <v>9.557814923166843</v>
       </c>
       <c r="I25">
-        <v>24.2096083358976</v>
+        <v>14.37378036999308</v>
       </c>
       <c r="J25">
-        <v>8.416959463711175</v>
+        <v>4.908198413534691</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.36579544499105</v>
+        <v>8.597022901404037</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.88105086966905</v>
+        <v>12.14454586752868</v>
       </c>
       <c r="O25">
-        <v>24.95514071697751</v>
+        <v>16.41520448837094</v>
       </c>
     </row>
   </sheetData>
